--- a/medicine/Sexualité et sexologie/Alphonse_(série_télévisée)/Alphonse_(série_télévisée).xlsx
+++ b/medicine/Sexualité et sexologie/Alphonse_(série_télévisée)/Alphonse_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Alphonse_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse est une série télévisée française en six épisodes d'environ 50 minutes créée par Nicolas Bedos et mise en ligne du 12 octobre au 2 novembre 2023 sur Amazon Prime Video.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Alphonse_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série relate la résurrection morale d'un quadragénaire complexé, Alphonse. Il devient gigolo pour remplacer son père défaillant, Jacques, et rencontre beaucoup de femmes fascinantes qui l'entraînent dans de folles aventures.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Alphonse_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Jean Dujardin : Alphonse
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Dujardin : Alphonse
 Charlotte Gainsbourg : Margot
 Nicole Garcia : Martha
 Pierre Arditi : Jacques
 Laura Morante : Laura
 Francine Bergé : Adèle
-Marie-Christine Barrault : Ève
-Personnages secondaires
-Lubna Azabal : Natacha Gemier
+Marie-Christine Barrault : Ève</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alphonse_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lubna Azabal : Natacha Gemier
 Vincent Macaigne : Wildred
 Olivier Barthélémy : Bruno
 Alice Dufour : Madeleine
@@ -582,31 +635,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alphonse_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Création : Nicolas Bedos, d'après une idée originale de Jean Dujardin
 Réalisation : Nicolas Bedos
@@ -617,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alphonse_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Épisode 1 : Alphonse subit une violente agression de la part de clients affiliés à la mafia. Lors de ses congés, il prend conscience de la profonde empreinte laissée par l'abandon de sa mère durant son enfance. En plus de cela, il perd son emploi. Le même jour, il reçoit la nouvelle de l'hospitalisation de son père éloigné, Jacques. Les retrouvailles s'avèrent compliquées, d'autant plus qu'Alphonse découvre qu'il a secrètement travaillé comme gigolo toute sa vie.
 Épisode 2 : Pour tromper sa femme Margot, Alphonse lui fait croire qu'il a décroché un nouvel emploi, mais en réalité, il se substitue temporairement à son père en tant que gigolo pour des clientes parisiennes âgées. Au début, il peine à répondre aux attentes de sa clientèle, mais il se rend bientôt compte que ce travail inattendu lui apporte une satisfaction personnelle extraordinaire. Sa femme, dotée d'une grande perspicacité, ne tarde pas à découvrir la supercherie.
@@ -652,44 +709,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Making-of</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un documentaire de Pauline Desmonts sur les coulisses de la série est mis en ligne en décembre 2023 sur YouTube[1],[2]. Celle-ci accuse Prime Video d’avoir « boycotté » la dernière série[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Alphonse_(série_télévisée)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -704,12 +730,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Making-of</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un documentaire de Pauline Desmonts sur les coulisses de la série est mis en ligne en décembre 2023 sur YouTube,. Celle-ci accuse Prime Video d’avoir « boycotté » la dernière série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alphonse_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alphonse_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La critique est polarisée. Certains critiques étrillent la série, décrite comme un étalage de « vulgarité » (dans Libération)[4], de « mauvais goût » (Le Parisien)[5], de misanthropie (Télérama)[6] et de « misogynie » (L'Obs)[7], tandis que Paris Match et Le Figaro la louent[8],[9] et que Marianne et Le Point dénoncent une cabale[10],[11]. L'Indépendant la présente comme “peut-être la meilleure série de l'année”[12].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La critique est polarisée. Certains critiques étrillent la série, décrite comme un étalage de « vulgarité » (dans Libération), de « mauvais goût » (Le Parisien), de misanthropie (Télérama) et de « misogynie » (L'Obs), tandis que Paris Match et Le Figaro la louent, et que Marianne et Le Point dénoncent une cabale,. L'Indépendant la présente comme “peut-être la meilleure série de l'année”.
 </t>
         </is>
       </c>
